--- a/Client/Resources/Data/Animation/Enemy/Range/RangeEnemy.xlsx
+++ b/Client/Resources/Data/Animation/Enemy/Range/RangeEnemy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Range\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Animation\Enemy\Range\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4AABED-D710-49C2-A8F4-66179B455A72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60323A4-ACE0-4F81-9A45-8CE58229D9F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,31 +43,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enemy_Range_Idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy_Range_Death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Move</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Enemy_Range_Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy_Range_Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Range_Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enemy_Range_Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy_Range_Charge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0.06</v>
@@ -431,10 +431,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0.06</v>
@@ -442,13 +442,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.06</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
